--- a/data/trans_bre/CoTrAQ_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R-Habitat-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.871910926384547</v>
+        <v>-10.25203373448002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.73307357355805</v>
+        <v>-19.33975304344604</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1315083894225345</v>
+        <v>-0.1381721319721345</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3086468400148139</v>
+        <v>-0.3186000303517927</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.26302817473375</v>
+        <v>8.349910300650784</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.088598587442387</v>
+        <v>1.005915843356872</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1189333021735005</v>
+        <v>0.1240029793433118</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.01796174651126695</v>
+        <v>0.01420437975943327</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.13486392765283</v>
+        <v>-12.7023902308461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-12.87462248003928</v>
+        <v>-12.44971451820703</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.176412010677817</v>
+        <v>-0.1730011733230249</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2146576522232551</v>
+        <v>-0.2051837311773838</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.798727144208305</v>
+        <v>2.879769632111999</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.202400752651428</v>
+        <v>2.454206966083034</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02587953994055053</v>
+        <v>0.03901097387719023</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.05978499966875286</v>
+        <v>0.04744762575500455</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.6054693441041</v>
+        <v>-15.30218736211413</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.307332357246524</v>
+        <v>-7.459163911118963</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2016037648555954</v>
+        <v>-0.2087186471014486</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.1685060173308112</v>
+        <v>-0.1702724884623435</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.816501646782913</v>
+        <v>3.096859999428402</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.654846315788699</v>
+        <v>9.454093445627382</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.06124729748190413</v>
+        <v>0.04792765667890277</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2326702835065134</v>
+        <v>0.2520469241682557</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-14.4161002309468</v>
+        <v>-14.27696005823597</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.57234214056704</v>
+        <v>-14.34613929211522</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1999834451127437</v>
+        <v>-0.1996487377037279</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.209102586960813</v>
+        <v>-0.2197869317167065</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.294976066023716</v>
+        <v>0.4049111143894149</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9449789186562337</v>
+        <v>1.212061409068264</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.005302737565014341</v>
+        <v>0.007294281868061738</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01567227390597587</v>
+        <v>0.01948330629510699</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.707328736442744</v>
+        <v>-10.14936375067366</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.587318944034973</v>
+        <v>-8.483320118790479</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.1346017981813648</v>
+        <v>-0.1389390472070413</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1565502287732722</v>
+        <v>-0.1519601638324349</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.332803698508985</v>
+        <v>-1.400177174375961</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.4886512674571928</v>
+        <v>-0.2547196966008093</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.01973763882725552</v>
+        <v>-0.01864387355973391</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.008186051961090388</v>
+        <v>-0.004097308406878743</v>
       </c>
     </row>
     <row r="19">
